--- a/CV/Fichier Entreprises.xlsx
+++ b/CV/Fichier Entreprises.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Coordinateur\1. DEV\3. PEDAGOGIE\2. RESSOURCES PEDAGOGIQUES\1. SUPPORTS\8.MDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\PROJET FIL ROUGE - Minutos Telecom\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483A421-F364-43A1-80A8-66832BED7E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="20490" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fichier entreprises" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
@@ -68,11 +69,17 @@
   <si>
     <t>Relance</t>
   </si>
+  <si>
+    <t>IWIT SYSTEMS</t>
+  </si>
+  <si>
+    <t>https://fr.indeed.com/emplois?q=d%C3%A9veloppeur+web&amp;l=Toulouse+%2831%29&amp;sc=0kf%3Aattr%28UTPWG%29jt%28internship%29%3B&amp;vjk=9d4827200e46c7d7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,10 +236,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,16 +254,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -540,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,571 +566,545 @@
     <col min="13" max="13" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
@@ -1140,10 +1119,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    </row>
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
@@ -1160,7 +1138,7 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
@@ -1177,7 +1155,7 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
@@ -1194,7 +1172,7 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
@@ -1211,7 +1189,7 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
@@ -1228,7 +1206,7 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
@@ -1245,7 +1223,7 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="1"/>
@@ -1262,7 +1240,7 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="1"/>
@@ -1279,7 +1257,7 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="1"/>
@@ -1296,7 +1274,7 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
@@ -1313,7 +1291,7 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="1"/>
@@ -1330,7 +1308,7 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
@@ -1347,7 +1325,7 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
@@ -1364,7 +1342,7 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
@@ -1381,7 +1359,7 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
@@ -1398,7 +1376,7 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
@@ -1415,7 +1393,7 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
@@ -1432,7 +1410,7 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
@@ -1449,7 +1427,7 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="1"/>
@@ -1466,7 +1444,7 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="1"/>
@@ -1483,7 +1461,7 @@
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="1"/>
@@ -1500,7 +1478,7 @@
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="1"/>
@@ -1517,7 +1495,7 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="1"/>
@@ -1534,7 +1512,7 @@
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="1"/>
@@ -1551,7 +1529,7 @@
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="1"/>
@@ -1568,7 +1546,7 @@
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="1"/>
@@ -1588,7 +1566,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="1"/>
@@ -1605,7 +1583,7 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="1"/>
@@ -1622,7 +1600,7 @@
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="1"/>
@@ -1639,7 +1617,7 @@
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="1"/>
@@ -1662,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CV/Fichier Entreprises.xlsx
+++ b/CV/Fichier Entreprises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\PROJET FIL ROUGE - Minutos Telecom\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D8AB9-3854-44B9-B950-0F7362318D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246EEB6D-FFFC-4110-897E-D80820FF09AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fichier entreprises'!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fichier entreprises'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>https://www.vitacom.fr/</t>
+  </si>
+  <si>
+    <t>ENVOYÉ</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +505,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -786,10 +795,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -802,15 +811,15 @@
     <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" customHeight="1">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -837,20 +846,23 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="15.75">
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -874,14 +886,17 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="J2" s="24">
+        <v>45663</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="15.75">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.75">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -905,14 +920,17 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="24">
+        <v>45663</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="15.75">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="15.75">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -937,11 +955,12 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25">
+    <row r="5" spans="1:15" ht="17.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -966,11 +985,12 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.25">
+    <row r="6" spans="1:15" ht="17.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -995,11 +1015,12 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.25">
+    <row r="7" spans="1:15" ht="17.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1023,14 +1044,17 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="24">
+        <v>45663</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.25">
+    <row r="8" spans="1:15" ht="17.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1055,11 +1079,12 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25">
+    <row r="9" spans="1:15" ht="17.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1083,14 +1108,17 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="24">
+        <v>45663</v>
+      </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.25">
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1115,11 +1143,12 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.25">
+    <row r="11" spans="1:15" ht="17.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1143,14 +1172,17 @@
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="25">
+        <v>45664</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.25">
+    <row r="12" spans="1:15" ht="17.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1177,11 +1209,12 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="12"/>
+      <c r="N12" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25">
+    <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1205,14 +1238,17 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="25">
+        <v>45664</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.25">
+    <row r="14" spans="1:15" ht="17.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1227,9 +1263,10 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25">
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1244,9 +1281,10 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25">
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1261,9 +1299,10 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25">
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1278,9 +1317,10 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25">
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1295,9 +1335,10 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.25">
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1312,9 +1353,10 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25">
+      <c r="M19" s="12"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1329,9 +1371,10 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25">
+      <c r="M20" s="12"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1346,9 +1389,10 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25">
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="17.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1363,9 +1407,10 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25">
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="17.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1380,9 +1425,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25">
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="17.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1397,9 +1443,10 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25">
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1414,9 +1461,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25">
+      <c r="M25" s="12"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="17.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1431,9 +1479,10 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25">
+      <c r="M26" s="12"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="17.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1448,9 +1497,10 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25">
+      <c r="M27" s="12"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="17.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1465,9 +1515,10 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25">
+      <c r="M28" s="12"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1482,9 +1533,10 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.25">
+      <c r="M29" s="12"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1500,8 +1552,9 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.25">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1517,8 +1570,9 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.25">
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1534,8 +1588,9 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25">
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" ht="17.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1551,8 +1606,9 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25">
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" ht="17.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1568,8 +1624,9 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.25">
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" ht="17.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1585,8 +1642,9 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.25">
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" ht="17.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1602,8 +1660,9 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.25">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1619,8 +1678,9 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.25">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1636,8 +1696,9 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.25">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1653,8 +1714,9 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.25">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" ht="17.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1670,8 +1732,9 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.25">
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" ht="17.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1687,8 +1750,9 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.25">
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" ht="17.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1704,8 +1768,9 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25">
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" ht="17.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1721,8 +1786,9 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.25">
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" ht="17.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1738,8 +1804,9 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.25">
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1755,8 +1822,9 @@
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="1:13" ht="17.25">
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" ht="17.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1772,8 +1840,9 @@
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.25">
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" ht="17.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1789,8 +1858,9 @@
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.25">
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" ht="17.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -1806,8 +1876,9 @@
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="17.25">
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:15" ht="17.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1823,8 +1894,9 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" ht="17.25">
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:15" ht="17.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -1840,8 +1912,9 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" ht="17.25">
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" ht="17.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1857,8 +1930,9 @@
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" ht="17.25">
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:15" ht="17.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -1874,8 +1948,9 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" ht="17.25">
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" ht="17.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1891,8 +1966,9 @@
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" ht="17.25">
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" ht="17.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -1908,8 +1984,9 @@
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" ht="17.25">
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" ht="17.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1925,8 +2002,9 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" ht="17.25">
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" ht="17.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -1942,8 +2020,9 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" ht="17.25">
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:15" ht="17.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1959,11 +2038,12 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
-      <c r="N57" t="s">
+      <c r="N57" s="13"/>
+      <c r="O57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="17.25">
+    <row r="58" spans="1:15" ht="17.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -1979,8 +2059,9 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
-    </row>
-    <row r="59" spans="1:14" ht="17.25">
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="1:15" ht="17.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1996,8 +2077,9 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
-    </row>
-    <row r="60" spans="1:14" ht="17.25">
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" ht="17.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2013,8 +2095,9 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:14" ht="17.25">
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:15" ht="17.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2030,8 +2113,9 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="N61" s="13"/>
+    </row>
+    <row r="62" spans="1:15">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -2044,25 +2128,29 @@
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{AADC3324-975F-4BC8-8EB7-8E21AFBF89AA}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{3B909652-BF23-4B5D-9841-983CDE5FD946}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{8F5B87F2-5F08-4E05-A1AE-CBD64CE1A6B6}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{507B537A-2437-45C4-A1EE-88D1A6F755DF}"/>
-    <hyperlink ref="M4" r:id="rId5" xr:uid="{EB131977-34A5-4905-BE23-75CC2E3B820B}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{8F5B87F2-5F08-4E05-A1AE-CBD64CE1A6B6}"/>
+    <hyperlink ref="N3" r:id="rId4" xr:uid="{507B537A-2437-45C4-A1EE-88D1A6F755DF}"/>
+    <hyperlink ref="N4" r:id="rId5" xr:uid="{EB131977-34A5-4905-BE23-75CC2E3B820B}"/>
     <hyperlink ref="G5" r:id="rId6" display="https://www.google.com/search?q=dessitesetdesclics&amp;rlz=1C1ONGR_frFR956FR956&amp;oq=dessitesetdesclics&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIKCAEQABiABBiiBDIKCAIQABiABBiiBDIKCAMQABiABBiiBDIKCAQQABiABBiiBDIGCAUQRRg8MgYIBhBFGDwyBggHEEUYPNIBBzMyNmowajeoAgCwAgA&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{CB5DF68B-6280-4D25-A74D-3E10E7363E4A}"/>
-    <hyperlink ref="M6" r:id="rId7" xr:uid="{ABFD4D90-6470-40F4-8C75-C5F14F052BF6}"/>
+    <hyperlink ref="N6" r:id="rId7" xr:uid="{ABFD4D90-6470-40F4-8C75-C5F14F052BF6}"/>
     <hyperlink ref="F7" r:id="rId8" xr:uid="{2CCA966A-F40F-41A9-A786-0D21849290C5}"/>
     <hyperlink ref="F9" r:id="rId9" xr:uid="{E8325AD7-0562-49E6-B29C-3406A9E186E8}"/>
     <hyperlink ref="F11" r:id="rId10" xr:uid="{14B32C66-8FA6-4180-9FF3-67D661E64C1B}"/>
-    <hyperlink ref="M12" r:id="rId11" xr:uid="{44535AA9-0965-44E2-9B3C-0F57B7368B51}"/>
-    <hyperlink ref="F12" r:id="rId12" display="mailto:support@squirrel.fr" xr:uid="{4690108B-8BE8-4D6C-905D-8FB3AF007623}"/>
+    <hyperlink ref="N12" r:id="rId11" xr:uid="{44535AA9-0965-44E2-9B3C-0F57B7368B51}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{4690108B-8BE8-4D6C-905D-8FB3AF007623}"/>
     <hyperlink ref="F13" r:id="rId13" xr:uid="{AB651DC4-06D5-457B-9268-9AFAF7BC677B}"/>
+    <hyperlink ref="N7" r:id="rId14" xr:uid="{44DAA4AA-A1E8-4CEF-9F71-BF37CBEC6C5C}"/>
+    <hyperlink ref="N9" r:id="rId15" xr:uid="{D005BD74-B77E-48D9-A96B-AE4A642BAEE6}"/>
+    <hyperlink ref="N11" r:id="rId16" xr:uid="{122AB9F1-6663-4D4A-AD80-87F71C98BD7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId14"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/CV/Fichier Entreprises.xlsx
+++ b/CV/Fichier Entreprises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\PROJET FIL ROUGE - Minutos Telecom\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246EEB6D-FFFC-4110-897E-D80820FF09AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361888E-2E40-4A4C-B1C9-E9973621A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fichier entreprises" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
@@ -248,13 +248,141 @@
   </si>
   <si>
     <t>ENVOYÉ</t>
+  </si>
+  <si>
+    <t>https://dcvo.studio/lagence/</t>
+  </si>
+  <si>
+    <t>bonjour@dcvo.studio</t>
+  </si>
+  <si>
+    <t>dcvo</t>
+  </si>
+  <si>
+    <t>44 boulevard de strasbourg</t>
+  </si>
+  <si>
+    <t>06 45 04 99 47</t>
+  </si>
+  <si>
+    <t>https://thisispam.com/</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+info@thisispam.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++33 (0)5 31 21 65 05</t>
+  </si>
+  <si>
+    <t>62 quai de Tounis</t>
+  </si>
+  <si>
+    <t>https://kwalt-digital.com/contact-kwalt-toulouse/</t>
+  </si>
+  <si>
+    <t>https://kwalt-digital.com/</t>
+  </si>
+  <si>
+    <t>06 11 32 23 05</t>
+  </si>
+  <si>
+    <t>15 rue Saint-Hilaire</t>
+  </si>
+  <si>
+    <t>kwalt</t>
+  </si>
+  <si>
+    <t>contact@uniflow.agency</t>
+  </si>
+  <si>
+    <t>+33 (0)1 59 06 37 10</t>
+  </si>
+  <si>
+    <t>uniflow</t>
+  </si>
+  <si>
+    <t>https://uniflow.agency/contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contact@arkeris.com</t>
+  </si>
+  <si>
+    <t>https://www.arkeris.com/contact/</t>
+  </si>
+  <si>
+    <t>Arkeris</t>
+  </si>
+  <si>
+    <t>6 place Wilson, 31 000 Toulouse</t>
+  </si>
+  <si>
+    <t>07 67 25 09 97</t>
+  </si>
+  <si>
+    <t>contact@hello-pomelo.com</t>
+  </si>
+  <si>
+    <t>09 70 44 48 31</t>
+  </si>
+  <si>
+    <t>Hello Pomelo</t>
+  </si>
+  <si>
+    <t>https://hello-pomelo.com/agence-de-developpement-web-mobile-a-toulouse/</t>
+  </si>
+  <si>
+    <t>victor.muzet@advency.fr</t>
+  </si>
+  <si>
+    <t>contact@advency.fr</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>+33 5 82 95 81 39</t>
+  </si>
+  <si>
+    <t>Advency</t>
+  </si>
+  <si>
+    <t>34 rue du Languedoc</t>
+  </si>
+  <si>
+    <t>https://www.advency.fr/prendre-contact</t>
+  </si>
+  <si>
+    <t>13, Rue Sainte-Ursule</t>
+  </si>
+  <si>
+    <t>Kwantic</t>
+  </si>
+  <si>
+    <t>09 70 37 69 04</t>
+  </si>
+  <si>
+    <t>https://kwantic.fr/contact/</t>
+  </si>
+  <si>
+    <t>PickBeam</t>
+  </si>
+  <si>
+    <t>contact@pickbeam.com</t>
+  </si>
+  <si>
+    <t>Benoit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +488,17 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF292929"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -450,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,6 +649,14 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -797,11 +944,11 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -819,7 +966,7 @@
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -862,7 +1009,7 @@
       </c>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -896,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.75">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -930,7 +1077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="15.75">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -960,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25">
+    <row r="5" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -990,7 +1137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17.25">
+    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1020,7 +1167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.25">
+    <row r="7" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1054,7 +1201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.25">
+    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1084,7 +1231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.25">
+    <row r="9" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1118,7 +1265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.25">
+    <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1148,7 +1295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25">
+    <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1182,7 +1329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17.25">
+    <row r="12" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1206,7 +1353,9 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="25">
+        <v>45664</v>
+      </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -1214,7 +1363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25">
+    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1238,9 +1387,7 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="25">
-        <v>45664</v>
-      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -1248,7 +1395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25">
+    <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1266,133 +1413,204 @@
       <c r="M14" s="12"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25">
+    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11">
+        <v>31000</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25">
+      <c r="N15" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.25">
+      <c r="N16" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25">
+      <c r="N17" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25">
+      <c r="N18" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="17.25">
+      <c r="N19" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.25">
+      <c r="N20" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="F21" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>104</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.25">
+      <c r="N21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1400,8 +1618,9 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="27" t="s">
+        <v>102</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
@@ -1410,16 +1629,24 @@
       <c r="M22" s="12"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25">
+    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
@@ -1428,17 +1655,25 @@
       <c r="M23" s="12"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25">
+    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="29">
+        <v>33785477705</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -1446,7 +1681,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25">
+    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1464,7 +1699,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25">
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1482,7 +1717,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="17.25">
+    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1500,7 +1735,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25">
+    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1518,7 +1753,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25">
+    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1536,7 +1771,7 @@
       <c r="M29" s="12"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25">
+    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1554,7 +1789,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25">
+    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1572,7 +1807,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25">
+    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1590,7 +1825,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="17.25">
+    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1608,7 +1843,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25">
+    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1626,7 +1861,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="17.25">
+    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1644,7 +1879,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="17.25">
+    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1662,7 +1897,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="17.25">
+    <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1680,7 +1915,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" ht="17.25">
+    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1698,7 +1933,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="17.25">
+    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1716,7 +1951,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25">
+    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1734,7 +1969,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="17.25">
+    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1752,7 +1987,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="17.25">
+    <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1770,7 +2005,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="17.25">
+    <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1788,7 +2023,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="17.25">
+    <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1806,7 +2041,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="17.25">
+    <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1824,7 +2059,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="17.25">
+    <row r="46" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -1842,7 +2077,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="17.25">
+    <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1860,7 +2095,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="17.25">
+    <row r="48" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -1878,7 +2113,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:15" ht="17.25">
+    <row r="49" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1896,7 +2131,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:15" ht="17.25">
+    <row r="50" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -1914,7 +2149,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:15" ht="17.25">
+    <row r="51" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1932,7 +2167,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:15" ht="17.25">
+    <row r="52" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -1950,7 +2185,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:15" ht="17.25">
+    <row r="53" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1968,7 +2203,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:15" ht="17.25">
+    <row r="54" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -1986,7 +2221,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:15" ht="17.25">
+    <row r="55" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2004,7 +2239,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:15" ht="17.25">
+    <row r="56" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2022,7 +2257,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:15" ht="17.25">
+    <row r="57" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2043,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="17.25">
+    <row r="58" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2061,7 +2296,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:15" ht="17.25">
+    <row r="59" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2079,7 +2314,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:15" ht="17.25">
+    <row r="60" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2097,7 +2332,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:15" ht="17.25">
+    <row r="61" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2115,7 +2350,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -2148,9 +2383,23 @@
     <hyperlink ref="N7" r:id="rId14" xr:uid="{44DAA4AA-A1E8-4CEF-9F71-BF37CBEC6C5C}"/>
     <hyperlink ref="N9" r:id="rId15" xr:uid="{D005BD74-B77E-48D9-A96B-AE4A642BAEE6}"/>
     <hyperlink ref="N11" r:id="rId16" xr:uid="{122AB9F1-6663-4D4A-AD80-87F71C98BD7A}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{F15B7A77-B2FF-4053-9DAD-4C0374197833}"/>
+    <hyperlink ref="C15" r:id="rId18" display="https://www.google.com/maps/place/44+Boulevard+de+Strasbourg,+31000+Toulouse/@43.6091555,1.4471255,15.85z/data=!4m5!3m4!1s0x12aebc9f80d19741:0x1eadd5efb81bb59b!8m2!3d43.6090936!4d1.4456023" xr:uid="{EA5019D9-CE82-4A3B-9F41-C67606626EE6}"/>
+    <hyperlink ref="G15" r:id="rId19" display="tel:+33645049947" xr:uid="{DC7D622A-9C90-4753-9BF7-1AEB8DDB2909}"/>
+    <hyperlink ref="C16" r:id="rId20" display="https://g.page/thisispam?share" xr:uid="{FCA1CC0E-37BB-42E4-A3D6-A7B0417C1FBC}"/>
+    <hyperlink ref="F17" r:id="rId21" xr:uid="{32805EF2-AF24-4D98-B9D5-6E2BF7A88649}"/>
+    <hyperlink ref="G17" r:id="rId22" display="tel:0611322305" xr:uid="{7FC25763-A5F9-4ADB-B022-331236E3B523}"/>
+    <hyperlink ref="F18" r:id="rId23" xr:uid="{9885C04A-6B43-4D08-BF12-4E1C8528F735}"/>
+    <hyperlink ref="G18" r:id="rId24" display="tel:+33159063710" xr:uid="{70CDD3FF-5DC1-495D-ABF2-4B5431831209}"/>
+    <hyperlink ref="F20" r:id="rId25" xr:uid="{6764C7C1-5A90-4908-9325-F7B7A16387A3}"/>
+    <hyperlink ref="N20" r:id="rId26" xr:uid="{447CFE71-F9B0-4093-9892-F2BB599E8EE8}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{654C4EB4-F5E9-4231-963C-13021A6B32F1}"/>
+    <hyperlink ref="N21" r:id="rId28" xr:uid="{C4902704-CE2F-4C64-A79F-419465B19298}"/>
+    <hyperlink ref="F24" r:id="rId29" display="mailto:contact@pickbeam.com" xr:uid="{ECFEDA46-3A42-4293-B846-3F947BAEF400}"/>
+    <hyperlink ref="G24" r:id="rId30" display="tel:+33785477705" xr:uid="{A69D7BB7-A370-445D-A61D-D1A9C72F10A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId17"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2160,7 +2409,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CV/Fichier Entreprises.xlsx
+++ b/CV/Fichier Entreprises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\PROJET FIL ROUGE - Minutos Telecom\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361888E-2E40-4A4C-B1C9-E9973621A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAC001-494C-47F3-8AFA-8BA252A38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fichier entreprises" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
@@ -297,9 +297,6 @@
     <t>kwalt</t>
   </si>
   <si>
-    <t>contact@uniflow.agency</t>
-  </si>
-  <si>
     <t>+33 (0)1 59 06 37 10</t>
   </si>
   <si>
@@ -376,13 +373,28 @@
   </si>
   <si>
     <t>Benoit</t>
+  </si>
+  <si>
+    <t>vorteX-io</t>
+  </si>
+  <si>
+    <t>contact@vortex-io.fr</t>
+  </si>
+  <si>
+    <t>https://www.vortex-io.fr/accueil-fr/contact-start-up-toulouse/</t>
+  </si>
+  <si>
+    <t>+33 (0)5 82 99 12 41</t>
+  </si>
+  <si>
+    <t>13 rue André Villet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +511,19 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF66798A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF66798A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -589,7 +614,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +675,7 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,6 +683,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -944,18 +971,18 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="26.85546875" customWidth="1"/>
@@ -966,7 +993,7 @@
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1009,7 +1036,7 @@
       </c>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1043,7 +1070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.75">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="15.75">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1107,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="17.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1137,7 +1164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="17.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1167,7 +1194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="17.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1201,7 +1228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="17.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="17.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1265,7 +1292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1295,7 +1322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="17.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1329,7 +1356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="17.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1363,7 +1390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1395,7 +1422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="17.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1413,7 +1440,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="17.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1437,7 +1464,9 @@
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="25">
+        <v>45675</v>
+      </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -1445,7 +1474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1465,15 +1494,17 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="J16" s="25">
+        <v>45675</v>
+      </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="17.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1492,7 +1523,7 @@
         <v>85</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
@@ -1503,21 +1534,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="17.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1525,27 +1556,27 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="N18" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1553,25 +1584,25 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="N19" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1580,26 +1611,26 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
@@ -1607,10 +1638,10 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1618,8 +1649,8 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="27" t="s">
-        <v>102</v>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1629,23 +1660,23 @@
       <c r="M22" s="12"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="17.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1655,24 +1686,24 @@
       <c r="M23" s="12"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="17.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="29">
         <v>33785477705</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
@@ -1681,7 +1712,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="17.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1699,25 +1730,39 @@
       <c r="M25" s="12"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="17.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="11">
+        <v>31400</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>117</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="N26" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1735,7 +1780,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="17.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1753,7 +1798,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="17.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1771,7 +1816,7 @@
       <c r="M29" s="12"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="17.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1789,7 +1834,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="17.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1807,7 +1852,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="17.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1825,7 +1870,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1843,7 +1888,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1861,7 +1906,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1879,7 +1924,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1897,7 +1942,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1915,7 +1960,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1933,7 +1978,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="17.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1951,7 +1996,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="17.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1969,7 +2014,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="17.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1987,7 +2032,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="17.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2005,7 +2050,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="17.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2023,7 +2068,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="17.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2041,7 +2086,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="17.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2059,7 +2104,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="17.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2077,7 +2122,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="17.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2095,7 +2140,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="17.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2113,7 +2158,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="17.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2131,7 +2176,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="17.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2149,7 +2194,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="17.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2167,7 +2212,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="17.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2185,7 +2230,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="17.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2203,7 +2248,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="17.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2221,7 +2266,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="17.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2239,7 +2284,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="17.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2257,7 +2302,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="17.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2278,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="17.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2296,7 +2341,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="17.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2314,7 +2359,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="17.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2332,7 +2377,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="17.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2350,7 +2395,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -2395,11 +2440,16 @@
     <hyperlink ref="N20" r:id="rId26" xr:uid="{447CFE71-F9B0-4093-9892-F2BB599E8EE8}"/>
     <hyperlink ref="F21" r:id="rId27" xr:uid="{654C4EB4-F5E9-4231-963C-13021A6B32F1}"/>
     <hyperlink ref="N21" r:id="rId28" xr:uid="{C4902704-CE2F-4C64-A79F-419465B19298}"/>
-    <hyperlink ref="F24" r:id="rId29" display="mailto:contact@pickbeam.com" xr:uid="{ECFEDA46-3A42-4293-B846-3F947BAEF400}"/>
+    <hyperlink ref="F24" r:id="rId29" xr:uid="{ECFEDA46-3A42-4293-B846-3F947BAEF400}"/>
     <hyperlink ref="G24" r:id="rId30" display="tel:+33785477705" xr:uid="{A69D7BB7-A370-445D-A61D-D1A9C72F10A7}"/>
+    <hyperlink ref="N16" r:id="rId31" xr:uid="{34D56F6E-A511-4EA9-9D54-0D2969FF17BE}"/>
+    <hyperlink ref="N18" r:id="rId32" xr:uid="{179AD604-BD6C-4768-9366-C738EB62AD93}"/>
+    <hyperlink ref="N19" r:id="rId33" xr:uid="{4BA33B69-0BD1-4BAB-AB24-468D42B26009}"/>
+    <hyperlink ref="F22" r:id="rId34" xr:uid="{E27793D7-EC24-4D8A-BA66-1666AC3FED3E}"/>
+    <hyperlink ref="F26" r:id="rId35" xr:uid="{4F47379F-886C-4C99-AD38-61CE4E3791E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId31"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -2409,7 +2459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
